--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -390,15 +390,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="35.5546875" customWidth="1" min="1" max="1"/>
+    <col width="18.109375" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -416,69 +416,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-01 23:20:01</t>
+          <t>2024-04-10 05:52:45</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20MIA1030</t>
+          <t>21BLC1378</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-03-01 23:23:18</t>
+          <t>2024-04-10 05:57:14</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2024-03-01 23:24:42</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>20MIA1030</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2024-03-01 23:26:07</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>20MIA1030</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2024-03-01 23:27:02</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>20MIA1030</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2024-03-01 23:27:31</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>20MIA1030</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
